--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Dimensión 5</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 7</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 8</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dimensión 5</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -721,23 +721,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -767,7 +767,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -776,17 +776,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -797,54 +797,56 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -855,7 +857,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -869,12 +871,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -885,7 +887,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -904,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -915,7 +917,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -924,17 +926,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -945,7 +947,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -954,7 +956,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -964,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -975,7 +977,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -989,12 +991,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1005,7 +1007,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1014,7 +1016,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1024,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1035,7 +1037,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1044,7 +1046,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1054,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1065,7 +1067,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1074,17 +1076,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1095,7 +1097,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1104,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1125,7 +1127,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1139,21 +1141,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1162,17 +1166,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1183,7 +1187,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1192,17 +1196,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1213,11 +1217,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1227,12 +1231,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1243,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1252,17 +1256,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1273,11 +1277,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1287,12 +1291,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1303,7 +1307,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1312,7 +1316,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1322,18 +1326,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1342,17 +1346,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1363,7 +1367,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1372,28 +1376,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1402,26 +1406,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1430,17 +1436,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1451,7 +1457,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1460,28 +1466,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1490,26 +1496,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1523,23 +1531,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1548,17 +1556,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1569,7 +1577,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1578,17 +1586,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1599,11 +1607,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1613,12 +1621,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1629,7 +1637,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1638,7 +1646,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1648,37 +1656,37 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1689,16 +1697,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1708,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1719,26 +1727,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1749,7 +1757,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1758,17 +1766,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1779,7 +1787,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1793,12 +1801,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1809,7 +1817,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1823,12 +1831,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1839,7 +1847,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1848,17 +1856,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1869,7 +1877,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1878,26 +1886,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1911,12 +1921,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1927,7 +1937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1941,51 +1951,53 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1994,17 +2006,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2015,7 +2027,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2029,12 +2041,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2045,7 +2057,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2059,12 +2071,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2075,7 +2087,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2084,17 +2096,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2105,7 +2117,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2119,7 +2131,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2135,26 +2147,26 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2165,11 +2177,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2179,12 +2191,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2195,7 +2207,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2204,17 +2216,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2225,7 +2237,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2234,17 +2246,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2255,16 +2267,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2274,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2285,7 +2297,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2294,17 +2306,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2315,7 +2327,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2324,17 +2336,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2345,7 +2357,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2359,12 +2371,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2375,11 +2387,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2389,12 +2401,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2405,7 +2417,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2419,23 +2431,23 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2449,21 +2461,23 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2472,17 +2486,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2493,11 +2507,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2507,12 +2521,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2523,11 +2537,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2542,18 +2556,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2562,45 +2576,47 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2611,26 +2627,26 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2641,11 +2657,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2655,7 +2671,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2665,13 +2681,13 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2680,7 +2696,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2690,46 +2706,48 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2738,17 +2756,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2759,11 +2777,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2773,12 +2791,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2789,37 +2807,37 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2833,12 +2851,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2849,26 +2867,26 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2879,7 +2897,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2888,12 +2906,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2909,16 +2927,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2928,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2939,37 +2957,37 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2978,17 +2996,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2999,11 +3017,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3013,12 +3031,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3029,11 +3047,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3043,12 +3061,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3059,7 +3077,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3073,23 +3091,23 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3103,12 +3121,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3119,7 +3137,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3133,12 +3151,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3149,7 +3167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3163,12 +3181,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3179,11 +3197,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3193,12 +3211,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3209,21 +3227,21 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3239,7 +3257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3253,12 +3271,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3269,7 +3287,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3278,12 +3296,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3299,7 +3317,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3313,7 +3331,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3329,7 +3347,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3343,12 +3361,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3359,37 +3377,37 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3398,7 +3416,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3419,46 +3437,46 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3479,26 +3497,26 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3509,7 +3527,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3523,12 +3541,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3539,7 +3557,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3553,12 +3571,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3569,7 +3587,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3578,17 +3596,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3599,7 +3617,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3608,28 +3626,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3638,17 +3656,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3659,7 +3677,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3668,17 +3686,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3689,11 +3707,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3703,12 +3721,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3719,7 +3737,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3728,17 +3746,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3749,7 +3767,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3758,17 +3776,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3779,11 +3797,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3793,12 +3811,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3809,7 +3827,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3818,17 +3836,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3839,7 +3857,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3848,28 +3866,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3878,17 +3896,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3899,7 +3917,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3913,12 +3931,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3929,7 +3947,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3938,28 +3956,28 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3973,12 +3991,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3989,7 +4007,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3998,17 +4016,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4019,65 +4037,67 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4086,17 +4106,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4107,7 +4127,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4116,26 +4136,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4144,17 +4166,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4165,7 +4187,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4174,17 +4196,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4195,21 +4217,21 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4225,26 +4247,26 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4255,11 +4277,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4269,53 +4291,57 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4325,40 +4351,42 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4369,11 +4397,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4383,42 +4411,42 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4429,54 +4457,56 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4487,41 +4517,41 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4531,12 +4561,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4547,26 +4577,26 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4577,11 +4607,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4591,12 +4621,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4607,11 +4637,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4621,126 +4651,132 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4751,16 +4787,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4770,7 +4806,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4781,11 +4817,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4795,7 +4831,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4811,11 +4847,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4825,40 +4861,42 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>0</v>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4869,52 +4907,56 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0</v>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4925,26 +4967,26 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4955,16 +4997,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4974,7 +5016,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -4985,26 +5027,26 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5015,26 +5057,26 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5045,52 +5087,56 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5101,26 +5147,26 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5131,16 +5177,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5148,79 +5194,89 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0</v>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5228,63 +5284,69 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5295,16 +5357,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5314,7 +5376,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5325,41 +5387,41 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5369,60 +5431,62 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5432,53 +5496,57 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5488,25 +5556,27 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5516,7 +5586,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5527,26 +5597,26 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5557,26 +5627,26 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5587,26 +5657,26 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5617,26 +5687,26 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5647,26 +5717,26 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5677,26 +5747,26 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -5707,21 +5777,21 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5729,32 +5799,34 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>0</v>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5765,26 +5837,26 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5795,16 +5867,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5814,7 +5886,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -5825,26 +5897,26 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5855,16 +5927,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5874,7 +5946,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5885,16 +5957,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5904,27 +5976,27 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5934,7 +6006,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5945,16 +6017,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5964,25 +6036,27 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5990,37 +6064,1849 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>225</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>226</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>227</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>228</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>229</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>230</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>231</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>233</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>235</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>236</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>238</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>239</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>240</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>241</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>243</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>244</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>246</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>247</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>248</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>249</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>250</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>251</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>252</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>36</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>37</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>39</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>41</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>42</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>99</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>100</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>102</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>103</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>104</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>105</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>136</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>159</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>14</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>25</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>31</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>34</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>38</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>40</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>78</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>81</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>84</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>101</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>113</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>134</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>139</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>193</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>195</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>207</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>232</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>234</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>242</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Moda</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dimensión 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 4</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 5</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 7</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 8</t>
         </is>
@@ -467,59 +472,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -527,29 +542,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -557,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -566,7 +586,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,52 +596,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,15 +661,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -647,29 +682,34 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -677,29 +717,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -707,89 +752,104 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -797,119 +857,139 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -917,29 +997,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -947,29 +1032,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -977,29 +1067,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1007,29 +1102,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1037,29 +1137,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1067,29 +1172,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1097,11 +1207,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1111,15 +1221,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1127,59 +1242,69 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1187,71 +1312,81 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1261,15 +1396,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1277,29 +1417,34 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1307,41 +1452,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1351,15 +1501,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1367,149 +1522,174 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>1B</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1517,29 +1697,34 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1547,29 +1732,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1577,119 +1767,139 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1697,29 +1907,34 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1727,89 +1942,104 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1817,41 +2047,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1861,15 +2096,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1877,29 +2117,34 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1907,29 +2152,34 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1937,16 +2187,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1956,10 +2206,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1967,89 +2222,104 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2057,29 +2327,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2087,11 +2362,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2101,15 +2376,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2117,29 +2397,34 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2147,29 +2432,34 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2177,11 +2467,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2191,15 +2481,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2207,29 +2502,34 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2237,29 +2537,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2267,29 +2572,34 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2297,29 +2607,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2327,11 +2642,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2341,45 +2656,55 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2387,29 +2712,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2417,71 +2747,81 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>1B</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2491,15 +2831,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2507,29 +2852,34 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2537,41 +2887,46 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2581,15 +2936,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2597,29 +2957,34 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2627,29 +2992,34 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2657,41 +3027,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2701,15 +3076,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2717,11 +3097,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2731,45 +3111,55 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2777,59 +3167,69 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>1A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -2837,11 +3237,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2851,75 +3251,90 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2927,11 +3342,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2941,15 +3356,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2957,37 +3377,42 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>1A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2996,50 +3421,60 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3047,11 +3482,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3061,15 +3496,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3077,11 +3517,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3091,15 +3531,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3107,59 +3552,69 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3167,59 +3622,69 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3227,21 +3692,21 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3250,6 +3715,11 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3257,51 +3727,56 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3310,6 +3785,11 @@
         </is>
       </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3317,21 +3797,21 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3340,6 +3820,11 @@
         </is>
       </c>
       <c r="F97" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3347,29 +3832,34 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3377,41 +3867,46 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3421,7 +3916,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3430,6 +3925,11 @@
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3437,7 +3937,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3446,28 +3946,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3490,6 +3995,11 @@
         </is>
       </c>
       <c r="F102" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3497,29 +4007,34 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3527,7 +4042,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3536,20 +4051,25 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3557,11 +4077,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3571,15 +4091,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3587,7 +4112,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3596,20 +4121,25 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3617,11 +4147,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3631,15 +4161,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3647,29 +4182,34 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3677,11 +4217,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3691,15 +4231,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3707,29 +4252,34 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3737,11 +4287,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3751,15 +4301,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3767,29 +4322,34 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3797,29 +4357,34 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3827,21 +4392,21 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3851,65 +4416,80 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3917,11 +4497,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3931,15 +4511,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3947,59 +4532,69 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4007,11 +4602,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4021,15 +4616,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4037,16 +4637,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4056,10 +4656,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4067,11 +4672,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4081,27 +4686,32 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4111,15 +4721,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4127,11 +4742,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4141,27 +4756,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4171,15 +4791,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4187,59 +4812,69 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4247,11 +4882,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4261,15 +4896,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4277,29 +4917,34 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4307,29 +4952,34 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4337,11 +4987,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4351,15 +5001,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4367,11 +5022,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4381,15 +5036,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4397,11 +5057,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4411,45 +5071,55 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>2A</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4457,41 +5127,46 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>1A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4501,15 +5176,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4517,59 +5197,69 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4577,11 +5267,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4596,10 +5286,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4607,41 +5302,46 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>1A</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4651,15 +5351,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4667,41 +5372,46 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4711,15 +5421,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4727,11 +5442,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4741,15 +5456,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4757,41 +5477,46 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4801,15 +5526,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4817,21 +5547,21 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4840,6 +5570,11 @@
         </is>
       </c>
       <c r="F147" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4847,29 +5582,34 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4877,29 +5617,34 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4907,29 +5652,34 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4937,11 +5687,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4951,15 +5701,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4967,29 +5722,34 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4997,29 +5757,34 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5027,7 +5792,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5036,20 +5801,25 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5057,29 +5827,34 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5087,11 +5862,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5101,15 +5876,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5117,59 +5897,69 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5177,29 +5967,34 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5207,11 +6002,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5221,15 +6016,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5237,29 +6037,34 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5267,59 +6072,69 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5327,29 +6142,34 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5357,11 +6177,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5371,15 +6191,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5387,29 +6212,34 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -5417,101 +6247,116 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>2A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>2A</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5521,15 +6366,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5537,29 +6387,34 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5567,11 +6422,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5581,15 +6436,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5597,29 +6457,34 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5627,29 +6492,34 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5657,29 +6527,34 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5687,11 +6562,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5701,15 +6576,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5717,11 +6597,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5731,15 +6611,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5747,11 +6632,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5761,15 +6646,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5777,21 +6667,21 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5800,6 +6690,11 @@
         </is>
       </c>
       <c r="F179" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5807,29 +6702,34 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5837,29 +6737,34 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5867,11 +6772,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5881,15 +6786,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5897,29 +6807,34 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5927,29 +6842,34 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5957,29 +6877,34 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5987,29 +6912,34 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6017,11 +6947,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6031,15 +6961,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6047,11 +6982,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6061,15 +6996,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6077,11 +7017,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6091,15 +7031,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6107,29 +7052,34 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6137,149 +7087,174 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6287,29 +7262,34 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6317,29 +7297,34 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6347,29 +7332,34 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6377,59 +7367,69 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -6437,11 +7437,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6451,27 +7451,32 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6486,70 +7491,85 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>2A</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6557,16 +7577,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6576,52 +7596,62 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
           <t>1B</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6631,15 +7661,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6647,29 +7682,34 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6677,29 +7717,34 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6707,29 +7752,34 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6737,29 +7787,34 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6767,59 +7822,69 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>2A</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6827,59 +7892,69 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6887,29 +7962,34 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6917,41 +7997,46 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6961,15 +8046,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6977,29 +8067,34 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7007,29 +8102,34 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7037,11 +8137,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7051,15 +8151,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7067,29 +8172,34 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7097,29 +8207,34 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7127,29 +8242,34 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7157,11 +8277,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7171,15 +8291,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7187,11 +8312,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7201,15 +8326,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7217,29 +8347,34 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7247,97 +8382,112 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7356,10 +8506,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7367,59 +8522,69 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7427,16 +8592,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7451,57 +8616,67 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7511,35 +8686,45 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7547,51 +8732,56 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7601,13 +8791,18 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7626,10 +8821,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7637,21 +8837,21 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7661,43 +8861,53 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7716,10 +8926,15 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7727,183 +8942,388 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" t="n">
+        <v>250</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>251</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>252</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>192</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>234</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>Moda</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t>Promedio</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Dimensión 6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 7</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 8</t>
         </is>
@@ -496,10 +501,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -531,10 +541,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -566,10 +581,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -601,10 +621,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -636,10 +661,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -671,10 +701,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -706,10 +741,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -741,10 +781,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -781,6 +826,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -811,10 +861,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -851,6 +906,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -886,6 +946,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -921,6 +986,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -951,10 +1021,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -986,10 +1061,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1021,10 +1101,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1056,10 +1141,15 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1091,10 +1181,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1126,10 +1221,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1161,10 +1261,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1201,6 +1306,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1231,10 +1341,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1266,10 +1381,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1306,6 +1426,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1336,10 +1461,15 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1371,10 +1501,15 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -1406,10 +1541,15 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1446,6 +1586,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1481,6 +1626,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1511,10 +1661,15 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1546,10 +1701,15 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1586,6 +1746,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1596,7 +1761,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1606,20 +1771,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1651,10 +1821,15 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1686,10 +1861,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1701,12 +1881,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1716,15 +1896,20 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1736,12 +1921,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1751,7 +1936,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1760,6 +1945,11 @@
         </is>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1791,10 +1981,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1806,12 +2001,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1821,15 +2016,20 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
@@ -1841,30 +2041,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1876,12 +2081,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1891,15 +2096,20 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1911,12 +2121,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1926,15 +2136,20 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1966,10 +2181,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -2001,10 +2221,15 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -2036,10 +2261,15 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2071,10 +2301,15 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
@@ -2106,10 +2341,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2141,10 +2381,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2181,6 +2426,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2211,10 +2461,15 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2251,6 +2506,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2281,10 +2541,15 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2316,10 +2581,15 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2351,10 +2621,15 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2386,10 +2661,15 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2421,10 +2701,15 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2456,10 +2741,15 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2491,10 +2781,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2526,10 +2821,15 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2561,10 +2861,15 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2596,10 +2901,15 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2631,10 +2941,15 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2671,6 +2986,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -2701,10 +3021,15 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2736,10 +3061,15 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2776,6 +3106,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2811,6 +3146,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2841,10 +3181,15 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2881,6 +3226,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2911,10 +3261,15 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2946,10 +3301,15 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2981,10 +3341,15 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3016,10 +3381,15 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3051,10 +3421,15 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3086,10 +3461,15 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3126,6 +3506,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3156,10 +3541,15 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3191,10 +3581,15 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3226,10 +3621,15 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -3266,6 +3666,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -3296,10 +3701,15 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3331,10 +3741,15 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3366,10 +3781,15 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3401,10 +3821,15 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3436,10 +3861,15 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -3476,6 +3906,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3496,7 +3931,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3506,10 +3941,15 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3546,6 +3986,11 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3576,10 +4021,15 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -3616,6 +4066,11 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3646,10 +4101,15 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3681,10 +4141,15 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3716,10 +4181,15 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3751,10 +4221,15 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -3786,10 +4261,15 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3826,6 +4306,11 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3856,10 +4341,15 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3896,6 +4386,11 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -3911,7 +4406,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3930,6 +4425,11 @@
         </is>
       </c>
       <c r="G100" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3946,7 +4446,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3961,10 +4461,15 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3981,7 +4486,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4000,6 +4505,11 @@
         </is>
       </c>
       <c r="G102" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4016,7 +4526,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4035,6 +4545,11 @@
         </is>
       </c>
       <c r="G103" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4051,7 +4566,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4066,10 +4581,15 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4101,10 +4621,15 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4121,7 +4646,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4140,6 +4665,11 @@
         </is>
       </c>
       <c r="G106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4171,10 +4701,15 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4206,10 +4741,15 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4241,10 +4781,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4281,6 +4826,11 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -4311,10 +4861,15 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4346,10 +4901,15 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4381,10 +4941,15 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4416,10 +4981,15 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4451,10 +5021,15 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4486,10 +5061,15 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4521,10 +5101,15 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4561,6 +5146,11 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -4591,10 +5181,15 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4626,10 +5221,15 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4661,10 +5261,15 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4704,6 +5309,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4711,7 +5321,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4721,20 +5331,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4766,10 +5381,15 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -4781,7 +5401,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4791,20 +5411,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4841,6 +5466,11 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4871,10 +5501,15 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4911,6 +5546,11 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -4946,6 +5586,11 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -4981,6 +5626,11 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5011,10 +5661,15 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5046,10 +5701,15 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5081,10 +5741,15 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5121,6 +5786,11 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5151,10 +5821,15 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5186,10 +5861,15 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5206,7 +5886,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5221,10 +5901,15 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5256,10 +5941,15 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5291,10 +5981,15 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5326,10 +6021,15 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5361,10 +6061,15 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5404,6 +6109,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5431,10 +6141,15 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5466,10 +6181,15 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5501,10 +6221,15 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -5541,6 +6266,11 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5576,6 +6306,11 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5606,10 +6341,15 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5641,10 +6381,15 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5681,6 +6426,11 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5716,6 +6466,11 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5751,6 +6506,11 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5781,10 +6541,15 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5821,6 +6586,11 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -5851,10 +6621,15 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5886,10 +6661,15 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5929,6 +6709,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5956,10 +6741,15 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5976,7 +6766,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5991,10 +6781,15 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6026,10 +6821,15 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6061,10 +6861,15 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6096,10 +6901,15 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -6131,10 +6941,15 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6171,6 +6986,11 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -6201,10 +7021,15 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6236,10 +7061,15 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -6271,10 +7101,15 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6306,10 +7141,15 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6341,10 +7181,15 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6376,10 +7221,15 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6411,10 +7261,15 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6446,10 +7301,15 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6486,6 +7346,11 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -6521,6 +7386,11 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -6551,10 +7421,15 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6586,10 +7461,15 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6621,10 +7501,15 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6661,6 +7546,11 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -6691,10 +7581,15 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6726,10 +7621,15 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6761,10 +7661,15 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6796,10 +7701,15 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6831,10 +7741,15 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6866,10 +7781,15 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6906,6 +7826,11 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -6936,10 +7861,15 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6971,10 +7901,15 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7006,10 +7941,15 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7046,6 +7986,11 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -7076,10 +8021,15 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7119,6 +8069,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7146,10 +8101,15 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7189,6 +8149,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7216,10 +8181,15 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7251,10 +8221,15 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7286,10 +8261,15 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7321,10 +8301,15 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7361,6 +8346,11 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -7399,6 +8389,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7426,10 +8421,15 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -7461,10 +8461,15 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -7501,6 +8506,11 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -7531,10 +8541,15 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7566,10 +8581,15 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7606,6 +8626,11 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -7636,10 +8661,15 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7671,10 +8701,15 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7711,6 +8746,11 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -7741,10 +8781,15 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7776,10 +8821,15 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7816,6 +8866,11 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -7846,10 +8901,15 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7881,10 +8941,15 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7916,10 +8981,15 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7951,10 +9021,15 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7986,10 +9061,15 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8021,10 +9101,15 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8056,10 +9141,15 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8091,10 +9181,15 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8131,6 +9226,11 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8161,10 +9261,15 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8196,10 +9301,15 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8231,10 +9341,15 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8266,10 +9381,15 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8301,10 +9421,15 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8341,6 +9466,11 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8376,6 +9506,11 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8406,10 +9541,15 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8441,10 +9581,15 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8481,6 +9626,11 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8511,10 +9661,15 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8546,10 +9701,15 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8581,10 +9741,15 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8621,6 +9786,11 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8651,10 +9821,15 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -8691,6 +9866,11 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -8721,10 +9901,15 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8756,10 +9941,15 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -8791,10 +9981,15 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8826,10 +10021,15 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8861,10 +10061,15 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -8896,10 +10101,15 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8931,10 +10141,15 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8971,6 +10186,11 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -9006,6 +10226,11 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -9036,10 +10261,15 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9076,6 +10306,11 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -9111,6 +10346,11 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -9146,6 +10386,11 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -9176,10 +10421,15 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9219,6 +10469,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9246,10 +10501,15 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9283,10 +10543,15 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9310,7 +10575,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9324,6 +10589,11 @@
         </is>
       </c>
       <c r="G254" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Dimensión 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 8</t>
         </is>
@@ -491,25 +496,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -536,20 +546,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -571,25 +586,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -611,7 +631,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -621,15 +641,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -651,25 +676,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -691,25 +721,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -731,25 +766,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -771,25 +811,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -811,17 +856,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -830,6 +875,11 @@
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -851,25 +901,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -891,17 +946,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -910,6 +965,11 @@
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -931,17 +991,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -950,6 +1010,11 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -971,17 +1036,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -990,6 +1055,11 @@
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1001,27 +1071,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1031,7 +1101,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1051,25 +1126,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1091,25 +1171,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1131,25 +1216,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1171,25 +1261,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1211,25 +1306,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1251,25 +1351,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1296,12 +1401,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1310,6 +1415,11 @@
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1331,25 +1441,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1371,25 +1486,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1411,17 +1531,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1430,6 +1550,11 @@
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1441,37 +1566,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -1491,25 +1621,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -1531,25 +1666,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1571,17 +1711,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1590,6 +1730,11 @@
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1611,17 +1756,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1630,6 +1775,11 @@
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1651,25 +1801,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1681,27 +1836,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1711,7 +1866,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -1731,17 +1891,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1750,6 +1910,11 @@
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1771,25 +1936,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1801,37 +1971,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -1851,25 +2026,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1891,12 +2071,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1906,10 +2086,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1931,17 +2116,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1950,6 +2135,11 @@
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1961,37 +2151,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2011,25 +2206,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
@@ -2051,25 +2251,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2091,25 +2296,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2131,25 +2341,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2171,25 +2386,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -2216,20 +2436,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -2256,20 +2481,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2291,25 +2521,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
@@ -2331,25 +2566,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2371,25 +2611,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2411,17 +2656,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2430,6 +2675,11 @@
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2451,25 +2701,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2491,17 +2746,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2510,6 +2765,11 @@
         </is>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2531,25 +2791,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2571,25 +2836,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2611,25 +2881,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2651,25 +2926,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2691,25 +2971,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2731,25 +3016,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2771,25 +3061,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2811,25 +3106,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2851,25 +3151,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2891,25 +3196,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2936,7 +3246,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2946,10 +3256,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2971,17 +3286,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2990,6 +3305,11 @@
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -3011,25 +3331,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3051,7 +3376,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3066,10 +3391,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3091,17 +3421,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3110,6 +3440,11 @@
         </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3131,17 +3466,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3150,6 +3485,11 @@
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3171,25 +3511,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3211,17 +3556,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3230,6 +3575,11 @@
         </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3251,25 +3601,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3296,20 +3651,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3331,25 +3691,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3371,25 +3736,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3411,25 +3781,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3451,25 +3826,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3491,17 +3871,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3510,6 +3890,11 @@
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3536,20 +3921,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3561,37 +3951,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -3616,20 +4011,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -3651,17 +4051,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3670,6 +4070,11 @@
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -3681,37 +4086,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3731,25 +4141,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3776,7 +4191,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3786,10 +4201,15 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3801,37 +4221,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3851,25 +4276,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -3891,17 +4321,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3910,6 +4340,11 @@
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3931,25 +4366,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3971,17 +4411,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3990,6 +4430,11 @@
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4011,25 +4456,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -4051,17 +4501,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4070,6 +4520,11 @@
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4091,25 +4546,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -4131,25 +4591,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4176,20 +4641,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4216,20 +4686,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -4251,25 +4726,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4291,17 +4771,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4310,6 +4790,11 @@
         </is>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4331,25 +4816,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4371,17 +4861,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4390,6 +4880,11 @@
         </is>
       </c>
       <c r="H99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4411,25 +4906,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4451,25 +4951,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4496,12 +5001,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4510,6 +5015,11 @@
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4531,14 +5041,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>1B</t>
@@ -4550,6 +5060,11 @@
         </is>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4571,25 +5086,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4611,25 +5131,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4651,17 +5176,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4670,6 +5195,11 @@
         </is>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4691,25 +5221,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4731,25 +5266,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4771,25 +5311,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4811,17 +5356,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4830,6 +5375,11 @@
         </is>
       </c>
       <c r="H110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4851,25 +5401,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4896,20 +5451,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4936,20 +5496,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4961,27 +5526,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4991,7 +5556,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5581,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5026,10 +5596,15 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5051,25 +5626,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5091,25 +5671,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5136,12 +5721,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5150,6 +5735,11 @@
         </is>
       </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5176,20 +5766,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5211,25 +5806,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5256,20 +5856,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5291,25 +5896,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -5336,20 +5946,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5371,27 +5986,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -5411,25 +6031,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5441,37 +6066,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -5491,25 +6121,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5531,17 +6166,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5550,6 +6185,11 @@
         </is>
       </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5576,12 +6216,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5590,6 +6230,11 @@
         </is>
       </c>
       <c r="H129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5611,17 +6256,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5630,6 +6275,11 @@
         </is>
       </c>
       <c r="H130" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5651,25 +6301,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5691,25 +6346,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5731,25 +6391,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5771,17 +6436,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5790,6 +6455,11 @@
         </is>
       </c>
       <c r="H134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5801,37 +6471,42 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -5851,25 +6526,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5891,25 +6571,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5931,25 +6616,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5971,25 +6661,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6001,37 +6696,42 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -6051,25 +6751,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6096,12 +6801,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6110,6 +6815,11 @@
         </is>
       </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -6131,17 +6841,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6150,6 +6860,11 @@
         </is>
       </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6171,12 +6886,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6186,10 +6901,15 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6211,25 +6931,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -6256,12 +6981,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6270,6 +6995,11 @@
         </is>
       </c>
       <c r="H146" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6291,17 +7021,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6310,6 +7040,11 @@
         </is>
       </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6336,20 +7071,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="H148" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6371,12 +7111,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6386,10 +7126,15 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6411,17 +7156,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6430,6 +7175,11 @@
         </is>
       </c>
       <c r="H150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6451,17 +7201,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6470,6 +7220,11 @@
         </is>
       </c>
       <c r="H151" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6491,17 +7246,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6510,6 +7265,11 @@
         </is>
       </c>
       <c r="H152" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6531,25 +7291,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6571,25 +7336,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="G154" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6611,25 +7381,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6651,25 +7426,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6681,37 +7461,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6731,25 +7516,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6771,25 +7561,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6811,25 +7606,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6851,12 +7651,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6866,10 +7666,15 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6891,25 +7696,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -6931,25 +7741,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6971,25 +7786,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7011,25 +7831,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7051,25 +7876,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -7096,20 +7926,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7141,15 +7976,20 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7171,25 +8011,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7211,25 +8056,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7251,25 +8101,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7291,25 +8146,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7331,17 +8191,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7350,6 +8210,11 @@
         </is>
       </c>
       <c r="H173" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7371,17 +8236,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7390,6 +8255,11 @@
         </is>
       </c>
       <c r="H174" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7411,7 +8281,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7426,10 +8296,15 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7451,25 +8326,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7491,25 +8371,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7531,17 +8416,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7550,6 +8435,11 @@
         </is>
       </c>
       <c r="H178" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7571,25 +8461,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7611,25 +8506,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7656,20 +8556,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7696,20 +8601,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7731,25 +8641,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="H183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7771,25 +8686,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7811,17 +8731,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7830,6 +8750,11 @@
         </is>
       </c>
       <c r="H185" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7851,25 +8776,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="H186" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7891,25 +8821,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7931,25 +8866,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -7971,17 +8911,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7990,6 +8930,11 @@
         </is>
       </c>
       <c r="H189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8011,25 +8956,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8074,6 +9024,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8106,10 +9061,15 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8154,6 +9114,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8186,12 +9151,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -8211,25 +9181,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8251,25 +9226,30 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8291,25 +9271,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8331,17 +9316,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8350,6 +9335,11 @@
         </is>
       </c>
       <c r="H198" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8371,17 +9361,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8390,6 +9380,11 @@
         </is>
       </c>
       <c r="H199" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -8416,20 +9411,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -8451,12 +9451,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8466,10 +9466,15 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -8501,7 +9506,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8510,6 +9515,11 @@
         </is>
       </c>
       <c r="H202" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -8531,25 +9541,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8576,7 +9591,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8586,10 +9601,15 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8611,17 +9631,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8630,6 +9650,11 @@
         </is>
       </c>
       <c r="H205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8641,27 +9666,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8671,7 +9696,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -8691,25 +9721,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8731,17 +9766,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8750,6 +9785,11 @@
         </is>
       </c>
       <c r="H208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8771,25 +9811,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8811,25 +9856,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8851,17 +9901,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8870,6 +9920,11 @@
         </is>
       </c>
       <c r="H211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8891,12 +9946,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8906,10 +9961,15 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8936,20 +9996,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -8971,25 +10036,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9011,25 +10081,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9051,25 +10126,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9096,20 +10176,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9136,20 +10221,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9171,7 +10261,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9181,15 +10271,20 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9221,7 +10316,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9230,6 +10325,11 @@
         </is>
       </c>
       <c r="H220" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9256,7 +10356,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9266,10 +10366,15 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9296,20 +10401,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9331,25 +10441,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9371,25 +10486,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9411,25 +10531,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F225" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="H225" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9456,12 +10581,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9470,6 +10595,11 @@
         </is>
       </c>
       <c r="H226" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9491,17 +10621,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9510,6 +10640,11 @@
         </is>
       </c>
       <c r="H227" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9536,20 +10671,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9571,25 +10711,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9616,12 +10761,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9630,6 +10775,11 @@
         </is>
       </c>
       <c r="H230" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9641,37 +10791,42 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -9691,25 +10846,30 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9736,20 +10896,25 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9776,12 +10941,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9790,6 +10955,11 @@
         </is>
       </c>
       <c r="H234" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9816,20 +10986,25 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -9851,17 +11026,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9870,6 +11045,11 @@
         </is>
       </c>
       <c r="H236" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9891,25 +11071,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -9931,25 +11116,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -9971,25 +11161,30 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10026,10 +11221,15 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10051,14 +11251,14 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>1B</t>
@@ -10066,10 +11266,15 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -10096,7 +11301,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -10106,10 +11311,15 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10121,37 +11331,42 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10171,17 +11386,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10190,6 +11405,11 @@
         </is>
       </c>
       <c r="H244" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10211,17 +11431,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10230,6 +11450,11 @@
         </is>
       </c>
       <c r="H245" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10261,15 +11486,20 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10291,17 +11521,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10310,6 +11540,11 @@
         </is>
       </c>
       <c r="H247" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10331,17 +11566,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10350,6 +11585,11 @@
         </is>
       </c>
       <c r="H248" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10371,17 +11611,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10390,6 +11630,11 @@
         </is>
       </c>
       <c r="H249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
@@ -10411,25 +11656,30 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10474,6 +11724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10506,10 +11761,15 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10533,25 +11793,30 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -10575,17 +11840,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10594,6 +11859,11 @@
         </is>
       </c>
       <c r="H254" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -49,13 +49,13 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
     <t>1B</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2A</t>
@@ -67,10 +67,10 @@
     <t>2B</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -480,16 +480,16 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -509,16 +509,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -538,16 +538,16 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -555,28 +555,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -584,28 +584,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -613,28 +613,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -642,28 +642,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -671,28 +671,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -700,28 +700,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -729,28 +729,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -758,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -770,16 +770,16 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -787,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -816,28 +816,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -845,25 +845,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -886,16 +886,16 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -903,28 +903,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -932,28 +932,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -961,10 +961,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -973,16 +973,16 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -990,28 +990,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1019,28 +1019,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1048,10 +1048,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1060,16 +1060,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1077,28 +1077,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1106,28 +1106,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1135,28 +1135,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1164,28 +1164,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1193,28 +1193,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1222,28 +1222,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1251,28 +1251,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1280,28 +1280,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1309,28 +1309,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1338,28 +1338,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1367,28 +1367,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1396,28 +1396,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1425,10 +1425,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1437,16 +1437,16 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1454,28 +1454,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1483,28 +1483,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1512,28 +1512,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1541,28 +1541,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -1599,19 +1599,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -1620,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1628,28 +1628,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1657,28 +1657,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1686,22 +1686,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -1715,10 +1715,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -1727,16 +1727,16 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1744,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -1756,16 +1756,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1773,22 +1773,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -1802,28 +1802,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1831,28 +1831,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1860,28 +1860,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1889,28 +1889,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1918,28 +1918,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1947,10 +1947,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -1959,16 +1959,16 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1976,28 +1976,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2005,28 +2005,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2034,28 +2034,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2063,28 +2063,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2092,28 +2092,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2121,28 +2121,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2150,28 +2150,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2179,28 +2179,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2208,28 +2208,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2237,10 +2237,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -2249,16 +2249,16 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2266,25 +2266,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
@@ -2295,28 +2295,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2324,28 +2324,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2353,28 +2353,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2382,28 +2382,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2411,28 +2411,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2440,28 +2440,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2469,7 +2469,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -2478,19 +2478,19 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2498,28 +2498,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
         <v>13</v>
       </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2527,28 +2527,28 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2556,28 +2556,28 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2585,28 +2585,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2614,28 +2614,28 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2643,28 +2643,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2672,10 +2672,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -2684,16 +2684,16 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2701,28 +2701,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2730,10 +2730,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -2742,16 +2742,16 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2759,25 +2759,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
@@ -2788,22 +2788,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -2817,28 +2817,28 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2846,28 +2846,28 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2875,25 +2875,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -2904,22 +2904,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -2933,28 +2933,28 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2962,28 +2962,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2991,28 +2991,28 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3020,28 +3020,28 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3049,28 +3049,28 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3078,7 +3078,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -3087,19 +3087,19 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
         <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3107,28 +3107,28 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3136,10 +3136,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -3148,16 +3148,16 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3165,10 +3165,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3177,16 +3177,16 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3194,28 +3194,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3223,28 +3223,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3252,10 +3252,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -3264,16 +3264,16 @@
         <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3281,28 +3281,28 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3310,7 +3310,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3322,16 +3322,16 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3339,28 +3339,28 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3368,28 +3368,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>13</v>
       </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3397,7 +3397,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -3409,16 +3409,16 @@
         <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3426,28 +3426,28 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3455,28 +3455,28 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3484,28 +3484,28 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3513,28 +3513,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3542,28 +3542,28 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3571,28 +3571,28 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3600,28 +3600,28 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3629,28 +3629,28 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3658,10 +3658,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -3670,16 +3670,16 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3687,10 +3687,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -3699,16 +3699,16 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3716,28 +3716,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3745,28 +3745,28 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3774,28 +3774,28 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
         <v>16</v>
       </c>
       <c r="I116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3803,28 +3803,28 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3832,10 +3832,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
@@ -3844,16 +3844,16 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3861,10 +3861,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -3873,16 +3873,16 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3890,28 +3890,28 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3919,10 +3919,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -3931,16 +3931,16 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3948,22 +3948,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -3977,10 +3977,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4006,10 +4006,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -4018,16 +4018,16 @@
         <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4035,28 +4035,28 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4064,28 +4064,28 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
         <v>16</v>
       </c>
       <c r="I126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4093,28 +4093,28 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4122,28 +4122,28 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4151,10 +4151,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
@@ -4163,16 +4163,16 @@
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4180,28 +4180,28 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4209,28 +4209,28 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4238,19 +4238,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
         <v>16</v>
@@ -4259,7 +4259,7 @@
         <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4267,28 +4267,28 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4296,28 +4296,28 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4325,10 +4325,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
         <v>16</v>
@@ -4337,16 +4337,16 @@
         <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
         <v>16</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4354,28 +4354,28 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4383,28 +4383,28 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4412,28 +4412,28 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4441,28 +4441,28 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4470,28 +4470,28 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4499,28 +4499,28 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4528,28 +4528,28 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
         <v>13</v>
       </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4557,28 +4557,28 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4589,13 +4589,13 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -4604,10 +4604,10 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4615,28 +4615,28 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
       </c>
       <c r="I145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4644,22 +4644,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -4673,28 +4673,28 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
         <v>13</v>
       </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4702,28 +4702,28 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4731,7 +4731,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -4746,13 +4746,13 @@
         <v>14</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4760,10 +4760,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
@@ -4772,16 +4772,16 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
       </c>
       <c r="I150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4789,28 +4789,28 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4818,28 +4818,28 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4847,28 +4847,28 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4876,28 +4876,28 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4905,28 +4905,28 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4934,28 +4934,28 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4963,28 +4963,28 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4992,28 +4992,28 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5021,28 +5021,28 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5050,28 +5050,28 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
         <v>11</v>
       </c>
       <c r="I160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5079,28 +5079,28 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
         <v>11</v>
       </c>
       <c r="I161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5108,28 +5108,28 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
         <v>11</v>
       </c>
       <c r="I162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5137,22 +5137,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -5166,28 +5166,28 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
       </c>
       <c r="I164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5195,13 +5195,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
         <v>16</v>
@@ -5210,13 +5210,13 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5224,28 +5224,28 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
       </c>
       <c r="I166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5253,28 +5253,28 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5282,7 +5282,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -5294,16 +5294,16 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H168" t="s">
         <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5311,7 +5311,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -5326,13 +5326,13 @@
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5340,28 +5340,28 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
         <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5369,28 +5369,28 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
       </c>
       <c r="I171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5398,28 +5398,28 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
       </c>
       <c r="I172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5427,28 +5427,28 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
       </c>
       <c r="I173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5456,28 +5456,28 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5485,28 +5485,28 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5514,28 +5514,28 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H176" t="s">
         <v>14</v>
       </c>
       <c r="I176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5543,28 +5543,28 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5572,28 +5572,28 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H178" t="s">
         <v>16</v>
       </c>
       <c r="I178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5601,28 +5601,28 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5630,28 +5630,28 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5659,28 +5659,28 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
       </c>
       <c r="I181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5688,10 +5688,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
@@ -5700,16 +5700,16 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
         <v>14</v>
       </c>
       <c r="I182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5717,10 +5717,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
@@ -5729,16 +5729,16 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5746,19 +5746,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
         <v>16</v>
@@ -5767,7 +5767,7 @@
         <v>14</v>
       </c>
       <c r="I184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5775,28 +5775,28 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
       </c>
       <c r="I185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5804,28 +5804,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5833,19 +5833,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
         <v>16</v>
@@ -5854,7 +5854,7 @@
         <v>14</v>
       </c>
       <c r="I187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5862,28 +5862,28 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
       </c>
       <c r="I188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5891,28 +5891,28 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
         <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
         <v>14</v>
       </c>
       <c r="I189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5920,28 +5920,28 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5949,28 +5949,28 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E191" t="s">
         <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
         <v>14</v>
       </c>
       <c r="I191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5978,10 +5978,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D192" t="s">
         <v>14</v>
@@ -5990,16 +5990,16 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6007,28 +6007,28 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6036,28 +6036,28 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6065,28 +6065,28 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6097,25 +6097,25 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s">
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H196" t="s">
         <v>14</v>
       </c>
       <c r="I196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6123,10 +6123,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
         <v>14</v>
@@ -6135,16 +6135,16 @@
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6152,10 +6152,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
@@ -6164,16 +6164,16 @@
         <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
         <v>14</v>
       </c>
       <c r="I198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6181,28 +6181,28 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H199" t="s">
         <v>14</v>
       </c>
       <c r="I199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6210,28 +6210,28 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6239,28 +6239,28 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6268,28 +6268,28 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
         <v>13</v>
       </c>
-      <c r="D202" t="s">
-        <v>11</v>
-      </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H202" t="s">
         <v>14</v>
       </c>
       <c r="I202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6297,25 +6297,25 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I203" t="s">
         <v>14</v>
@@ -6326,25 +6326,25 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I204" t="s">
         <v>14</v>
@@ -6355,10 +6355,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
         <v>16</v>
@@ -6367,16 +6367,16 @@
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H205" t="s">
         <v>14</v>
       </c>
       <c r="I205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6384,10 +6384,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
         <v>14</v>
@@ -6396,16 +6396,16 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
       </c>
       <c r="I206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6413,28 +6413,28 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6442,28 +6442,28 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6471,10 +6471,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
         <v>16</v>
@@ -6483,16 +6483,16 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
         <v>14</v>
       </c>
       <c r="I209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6500,28 +6500,28 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6529,28 +6529,28 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H211" t="s">
         <v>14</v>
       </c>
       <c r="I211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6558,28 +6558,28 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
       </c>
       <c r="I212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6587,28 +6587,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
       </c>
       <c r="E213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6616,28 +6616,28 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
       </c>
       <c r="I214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6645,10 +6645,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
         <v>14</v>
@@ -6657,16 +6657,16 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6674,28 +6674,28 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6703,28 +6703,28 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H217" t="s">
         <v>14</v>
       </c>
       <c r="I217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6732,28 +6732,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
         <v>14</v>
       </c>
       <c r="I218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6761,10 +6761,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D219" t="s">
         <v>14</v>
@@ -6773,16 +6773,16 @@
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H219" t="s">
         <v>14</v>
       </c>
       <c r="I219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6790,10 +6790,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
@@ -6802,16 +6802,16 @@
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
       </c>
       <c r="I220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6819,28 +6819,28 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H221" t="s">
         <v>14</v>
       </c>
       <c r="I221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6848,28 +6848,28 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6877,7 +6877,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -6889,16 +6889,16 @@
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H223" t="s">
         <v>14</v>
       </c>
       <c r="I223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6906,10 +6906,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -6918,16 +6918,16 @@
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H224" t="s">
         <v>16</v>
       </c>
       <c r="I224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6935,28 +6935,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
       </c>
       <c r="I225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6964,28 +6964,28 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H226" t="s">
         <v>14</v>
       </c>
       <c r="I226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6993,19 +6993,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
         <v>16</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G227" t="s">
         <v>16</v>
@@ -7014,7 +7014,7 @@
         <v>14</v>
       </c>
       <c r="I227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7022,28 +7022,28 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
         <v>13</v>
       </c>
-      <c r="D228" t="s">
-        <v>14</v>
-      </c>
-      <c r="E228" t="s">
-        <v>11</v>
-      </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7051,28 +7051,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7080,10 +7080,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -7092,16 +7092,16 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
         <v>14</v>
       </c>
       <c r="I230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7109,28 +7109,28 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7138,10 +7138,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D232" t="s">
         <v>14</v>
@@ -7150,16 +7150,16 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7167,28 +7167,28 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G233" t="s">
         <v>16</v>
       </c>
       <c r="H233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7196,28 +7196,28 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H234" t="s">
         <v>14</v>
       </c>
       <c r="I234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7225,28 +7225,28 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
       </c>
       <c r="I235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7254,10 +7254,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
@@ -7266,16 +7266,16 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
       </c>
       <c r="I236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7283,19 +7283,19 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s">
         <v>13</v>
       </c>
-      <c r="D237" t="s">
-        <v>11</v>
-      </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
@@ -7304,7 +7304,7 @@
         <v>14</v>
       </c>
       <c r="I237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7312,10 +7312,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -7324,16 +7324,16 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H238" t="s">
         <v>14</v>
       </c>
       <c r="I238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7341,28 +7341,28 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7370,28 +7370,28 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H240" t="s">
         <v>14</v>
       </c>
       <c r="I240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7399,10 +7399,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
@@ -7411,10 +7411,10 @@
         <v>16</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
@@ -7428,28 +7428,28 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E242" t="s">
         <v>16</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H242" t="s">
         <v>14</v>
       </c>
       <c r="I242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7460,19 +7460,19 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
         <v>11</v>
       </c>
       <c r="G243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H243" t="s">
         <v>14</v>
@@ -7486,19 +7486,19 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G244" t="s">
         <v>15</v>
@@ -7507,7 +7507,7 @@
         <v>14</v>
       </c>
       <c r="I244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7515,7 +7515,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -7527,16 +7527,16 @@
         <v>16</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H245" t="s">
         <v>14</v>
       </c>
       <c r="I245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7544,10 +7544,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
         <v>14</v>
@@ -7556,16 +7556,16 @@
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H246" t="s">
         <v>14</v>
       </c>
       <c r="I246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7573,28 +7573,28 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7602,28 +7602,28 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7631,28 +7631,28 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H249" t="s">
         <v>14</v>
       </c>
       <c r="I249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7660,28 +7660,28 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
         <v>16</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7689,28 +7689,28 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7718,25 +7718,25 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E252" t="s">
         <v>16</v>
       </c>
       <c r="F252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -7747,28 +7747,28 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253" t="s">
         <v>16</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H253" t="s">
         <v>14</v>
       </c>
       <c r="I253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7776,28 +7776,28 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H254" t="s">
         <v>14</v>
       </c>
       <c r="I254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H255" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Marco acumulativo.xlsx
@@ -1562,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3464,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -6631,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
@@ -6848,22 +6848,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
@@ -7176,7 +7176,7 @@
         <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
         <v>11</v>
@@ -7591,7 +7591,7 @@
         <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I247" t="s">
         <v>11</v>
